--- a/documents/QMe_UserStories.xlsx
+++ b/documents/QMe_UserStories.xlsx
@@ -14,13 +14,15 @@
     <sheet name="Login_UseCases" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="User_UseCases" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Admin_UseCases" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="EntityDiagram" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Entities-Description" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="188">
   <si>
     <t>Project</t>
   </si>
@@ -257,6 +259,333 @@
   </si>
   <si>
     <t>So that I can answer random questions from selected categories until I get three wrong answer and the game is over. </t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>ROLE_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(128)</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>USER_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>USER_LAST_NAME</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>USER_PASSCODE</t>
+  </si>
+  <si>
+    <t>VARCHAR(512)</t>
+  </si>
+  <si>
+    <t>USER_REGISTERED_DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP </t>
+  </si>
+  <si>
+    <t>USER_UPDATED_DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+  </si>
+  <si>
+    <t>USER_ROLES</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY USER</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY ROLE</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>CAT_ID</t>
+  </si>
+  <si>
+    <t>CAT_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+  </si>
+  <si>
+    <t>CAT_PARENT_ID</t>
+  </si>
+  <si>
+    <t>CAT_CREATE_DATE</t>
+  </si>
+  <si>
+    <t>CAT_CREATE_USER</t>
+  </si>
+  <si>
+    <t>USER_CATEGORY</t>
+  </si>
+  <si>
+    <t>USER_CAT_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY CATEGORY</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>QUESTION_ID</t>
+  </si>
+  <si>
+    <t>QUESTION_TEXT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>QUESTION_ANSWER</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>QUESTION_LIKES</t>
+  </si>
+  <si>
+    <t>QUESTION_CREATE_DATE</t>
+  </si>
+  <si>
+    <t>QUESTION_CREATE_USER</t>
+  </si>
+  <si>
+    <t>QUESTION_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>QUESTION_UPDATE_USER</t>
+  </si>
+  <si>
+    <t>QUESTION_HIT</t>
+  </si>
+  <si>
+    <t>Primary Key / FOREIGN KEY QUESTION</t>
+  </si>
+  <si>
+    <t>RIGHT_COUNT</t>
+  </si>
+  <si>
+    <t>WRONG_COUNT</t>
+  </si>
+  <si>
+    <t>USER_QUESTION_LIKES</t>
+  </si>
+  <si>
+    <t>Primary Key / FOREIGN KEY USER</t>
+  </si>
+  <si>
+    <t>ANSWER_REFERENCE_MEDIA</t>
+  </si>
+  <si>
+    <t>ANSWER_REF_MEDIA_ID</t>
+  </si>
+  <si>
+    <t>REF_MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>REF_MEDIA_LINK_URL</t>
+  </si>
+  <si>
+    <t>REF_MEDIA</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>ANSWER_OPTION</t>
+  </si>
+  <si>
+    <t>OPTION_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY QUESTION</t>
+  </si>
+  <si>
+    <t>OPTION_TEXT</t>
+  </si>
+  <si>
+    <t>ISCORRECT</t>
+  </si>
+  <si>
+    <t>TINYINT(4)</t>
+  </si>
+  <si>
+    <t>Boolean 1 – True, 0 – False</t>
+  </si>
+  <si>
+    <t>ANSWER_OPTION_MEDIA</t>
+  </si>
+  <si>
+    <t>OPTION_MEDIA_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY ANSWER_OPTION</t>
+  </si>
+  <si>
+    <t>OPTION_MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>OPTION_MEDIA_LINK_URL</t>
+  </si>
+  <si>
+    <t>OPTION_MEDIA</t>
+  </si>
+  <si>
+    <t>QUIZ</t>
+  </si>
+  <si>
+    <t>QUIZ_ID</t>
+  </si>
+  <si>
+    <t>QUIZ_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>QUIZ_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(756)</t>
+  </si>
+  <si>
+    <t>QUIZ_HITS</t>
+  </si>
+  <si>
+    <t>QUIZ_LIKES</t>
+  </si>
+  <si>
+    <t>MAX_ATTEMPTS</t>
+  </si>
+  <si>
+    <t>QUIZ_CREATE_DATE</t>
+  </si>
+  <si>
+    <t>QUIZ_CREATE_USER</t>
+  </si>
+  <si>
+    <t>QUIZ_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>QUIZ_UPDATE_USER</t>
+  </si>
+  <si>
+    <t>QUIZ_QUESTION</t>
+  </si>
+  <si>
+    <t>QUIZ_QUESTION_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY QUIZ</t>
+  </si>
+  <si>
+    <t>USER_QUIZ</t>
+  </si>
+  <si>
+    <t>USER_QUIZ_ID</t>
+  </si>
+  <si>
+    <t>QUIZ_START_DATE</t>
+  </si>
+  <si>
+    <t>QUIZ_END_DATE</t>
+  </si>
+  <si>
+    <t>QUIZ_USER_SCORE</t>
+  </si>
+  <si>
+    <t>QUIZ_TOKEN</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>QUIZ_COMPLETE</t>
+  </si>
+  <si>
+    <t>USER_QUIZ_GAME</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>USER_SCORE</t>
+  </si>
+  <si>
+    <t>QUIZ_GAME_TOKEN</t>
+  </si>
+  <si>
+    <t>USER_QUIZ_LIKES</t>
+  </si>
+  <si>
+    <t>Primary Key /  FOREIGN KEY QUIZ</t>
   </si>
 </sst>
 </file>
@@ -267,7 +596,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -294,8 +623,20 @@
       <b val="true"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,7 +646,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0099CCFF"/>
-        <bgColor rgb="00CCCCFF"/>
+        <bgColor rgb="0083CAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083CAFF"/>
+        <bgColor rgb="0099CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3B3B3"/>
+        <bgColor rgb="00969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,7 +703,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
@@ -372,6 +725,27 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -381,6 +755,66 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B3B3B3"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0083CAFF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -548,6 +982,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666000</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="" id="4" name="Graphics 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12046680" cy="13346280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -676,7 +1151,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1104,7 +1579,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1435,7 +1910,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1460,7 +1935,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1486,7 +1961,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1512,11 +1987,1312 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.3254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="0" width="11.6235294117647"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="2">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
+      <c r="A6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.6" outlineLevel="0" r="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="A20" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="A26" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="A40" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+      <c r="A46" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="A50" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="A56" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+      <c r="A61" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
+      <c r="A67" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+      <c r="A80" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+      <c r="A84" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="92">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
+      <c r="A94" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="96">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="97">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="98">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="99">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="100">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="101">
+      <c r="A101" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="102">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="103">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="104">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documents/QMe_UserStories.xlsx
+++ b/documents/QMe_UserStories.xlsx
@@ -5,20 +5,40 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Project_Overview" sheetId="1" r:id="rId4"/>
-    <sheet name="Admin_UserStories" sheetId="2" r:id="rId5"/>
-    <sheet name="User_UserStories" sheetId="3" r:id="rId6"/>
-    <sheet name="Login_UseCases" sheetId="4" r:id="rId7"/>
-    <sheet name="User_UseCases" sheetId="5" r:id="rId8"/>
-    <sheet name="Admin_UseCases" sheetId="6" r:id="rId9"/>
-    <sheet name="EntityDiagram" sheetId="7" r:id="rId10"/>
-    <sheet name="Entities-Description" sheetId="8" r:id="rId11"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Project_Overview" sheetId="2" r:id="rId5"/>
+    <sheet name="Admin_UserStories" sheetId="3" r:id="rId6"/>
+    <sheet name="User_UserStories" sheetId="4" r:id="rId7"/>
+    <sheet name="Login_UseCases" sheetId="5" r:id="rId8"/>
+    <sheet name="User_UseCases" sheetId="6" r:id="rId9"/>
+    <sheet name="Admin_UseCases" sheetId="7" r:id="rId10"/>
+    <sheet name="EntityDiagram" sheetId="8" r:id="rId11"/>
+    <sheet name="Entities-Description - Table 1" sheetId="9" r:id="rId12"/>
+    <sheet name="Entities-Description - Table 1-" sheetId="10" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Project_Overview</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
   <si>
     <t>Project</t>
   </si>
@@ -38,6 +58,9 @@
     <t>Fun ways to create and share quizzes allowing to test, learn and remember.</t>
   </si>
   <si>
+    <t>Admin_UserStories</t>
+  </si>
+  <si>
     <t>Sr.No</t>
   </si>
   <si>
@@ -194,6 +217,9 @@
     <t>So that I can view quiz details and users who attempted quiz and scores.</t>
   </si>
   <si>
+    <t>User_UserStories</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
@@ -257,6 +283,24 @@
     <t xml:space="preserve">So that I can answer random questions from selected categories until I get three wrong answer and the game is over. </t>
   </si>
   <si>
+    <t>Login_UseCases</t>
+  </si>
+  <si>
+    <t>User_UseCases</t>
+  </si>
+  <si>
+    <t>Admin_UseCases</t>
+  </si>
+  <si>
+    <t>EntityDiagram</t>
+  </si>
+  <si>
+    <t>Entities-Description</t>
+  </si>
+  <si>
+    <t>Entities-Description - Table 1</t>
+  </si>
+  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -443,9 +487,6 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>REF_MEDIA_LINK_URL</t>
-  </si>
-  <si>
     <t>REF_MEDIA</t>
   </si>
   <si>
@@ -485,9 +526,6 @@
     <t>OPTION_MEDIA_TYPE</t>
   </si>
   <si>
-    <t>OPTION_MEDIA_LINK_URL</t>
-  </si>
-  <si>
     <t>OPTION_MEDIA</t>
   </si>
   <si>
@@ -566,6 +604,9 @@
     <t>USER_QUIZ_GAME</t>
   </si>
   <si>
+    <t>Primay KEy</t>
+  </si>
+  <si>
     <t>START_DATE</t>
   </si>
   <si>
@@ -578,10 +619,22 @@
     <t>QUIZ_GAME_TOKEN</t>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>This Should be primar Key</t>
+  </si>
+  <si>
     <t>USER_QUIZ_LIKES</t>
   </si>
   <si>
     <t>Primary Key /  FOREIGN KEY QUIZ</t>
+  </si>
+  <si>
+    <t>Table 1-1</t>
+  </si>
+  <si>
+    <t>Entities-Description - Table 1-</t>
   </si>
 </sst>
 </file>
@@ -591,9 +644,14 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -601,6 +659,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="10"/>
@@ -631,11 +695,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="18"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,19 +714,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -677,13 +759,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -698,7 +780,7 @@
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -710,10 +792,10 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -722,7 +804,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -755,7 +837,7 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -767,7 +849,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -776,7 +858,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,7 +873,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,43 +882,43 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,7 +948,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,10 +960,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,7 +975,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -906,155 +988,171 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1074,6 +1172,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff6dc1f3"/>
       <rgbColor rgb="ff515151"/>
       <rgbColor rgb="ff99ccff"/>
@@ -1081,6 +1182,7 @@
       <rgbColor rgb="ff83caff"/>
       <rgbColor rgb="ffb3b3b3"/>
       <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ffff2600"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1288,14 +1390,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>132599</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>139264</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image5.png"/>
+        <xdr:cNvPr id="10" name="Model.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1308,8 +1410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13112000" cy="13344090"/>
+          <a:off x="-1" y="0"/>
+          <a:ext cx="7858682" cy="8951229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,120 +2651,1558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4"/>
+      <c r="C24" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4"/>
+      <c r="C25" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s" s="5">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Project_Overview'!R1C1" tooltip="" display="Project_Overview"/>
+    <hyperlink ref="D12" location="'Admin_UserStories'!R1C1" tooltip="" display="Admin_UserStories"/>
+    <hyperlink ref="D14" location="'User_UserStories'!R1C1" tooltip="" display="User_UserStories"/>
+    <hyperlink ref="D16" location="'Login_UseCases'!R1C1" tooltip="" display="Login_UseCases"/>
+    <hyperlink ref="D18" location="'User_UseCases'!R1C1" tooltip="" display="User_UseCases"/>
+    <hyperlink ref="D20" location="'Admin_UseCases'!R1C1" tooltip="" display="Admin_UseCases"/>
+    <hyperlink ref="D22" location="'EntityDiagram'!R1C1" tooltip="" display="EntityDiagram"/>
+    <hyperlink ref="D24" location="'Entities-Description - Table 1'!R1C1" tooltip="" display="Entities-Description - Table 1"/>
+    <hyperlink ref="D25" location="'Entities-Description - Table 1-'!R1C1" tooltip="" display="Entities-Description - Table 1-"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="57" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="57" customWidth="1"/>
+    <col min="5" max="5" width="28" style="57" customWidth="1"/>
+    <col min="6" max="256" width="6" style="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="41">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="41">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s" s="41">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="44">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" t="s" s="44">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s" s="44">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s" s="45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" t="s" s="44">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="42">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" t="s" s="44">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s" s="44">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s" s="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" t="s" s="44">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" t="s" s="44">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" t="s" s="44">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" t="s" s="44">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s" s="44">
+        <v>114</v>
+      </c>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" t="s" s="44">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s" s="44">
+        <v>116</v>
+      </c>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" t="s" s="44">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" t="s" s="44">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="42">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s" s="44">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" t="s" s="44">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s" s="45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="42">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s" s="43">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" t="s" s="44">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s" s="44">
+        <v>127</v>
+      </c>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" t="s" s="44">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" t="s" s="44">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" t="s" s="44">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="42">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="43">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s" s="44">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="42">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s" s="43">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" t="s" s="44">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" t="s" s="44">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s" s="44">
+        <v>139</v>
+      </c>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" t="s" s="44">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" t="s" s="44">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" t="s" s="44">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" t="s" s="44">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E37" s="48"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" t="s" s="44">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="42">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s" s="43">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s" s="45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" t="s" s="44">
+        <v>145</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" t="s" s="44">
+        <v>147</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="48"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="44">
+        <v>148</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="42">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s" s="43">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s" s="45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s" s="45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" ht="16" customHeight="1">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="42">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s" s="43">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s" s="44">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E50" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s" s="45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" t="s" s="44">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s" s="44">
+        <v>154</v>
+      </c>
+      <c r="E52" s="48"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" t="s" s="44">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s" s="44">
+        <v>156</v>
+      </c>
+      <c r="E53" s="48"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="42">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s" s="43">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s" s="44">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s" s="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" t="s" s="44">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="E57" s="48"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" t="s" s="44">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s" s="45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="42">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s" s="43">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s" s="44">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" t="s" s="44">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s" s="45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" t="s" s="44">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s" s="44">
+        <v>154</v>
+      </c>
+      <c r="E62" s="48"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" t="s" s="44">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s" s="44">
+        <v>156</v>
+      </c>
+      <c r="E63" s="48"/>
+    </row>
+    <row r="64" ht="16" customHeight="1">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="51"/>
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="42">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s" s="43">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" t="s" s="44">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s" s="44">
+        <v>172</v>
+      </c>
+      <c r="E66" s="48"/>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" t="s" s="44">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s" s="44">
+        <v>174</v>
+      </c>
+      <c r="E67" s="48"/>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" t="s" s="44">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" t="s" s="44">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" t="s" s="44">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" t="s" s="44">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E72" s="48"/>
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" t="s" s="44">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" t="s" s="44">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E74" s="48"/>
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" t="s" s="44">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
+    </row>
+    <row r="77" ht="16" customHeight="1">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51"/>
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" s="42">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s" s="43">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s" s="44">
+        <v>183</v>
+      </c>
+      <c r="D78" s="52"/>
+      <c r="E78" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D79" s="52"/>
+      <c r="E79" t="s" s="45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" t="s" s="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="51"/>
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="42">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="43">
+        <v>185</v>
+      </c>
+      <c r="C82" t="s" s="44">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46"/>
+      <c r="C84" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s" s="45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D85" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E85" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" t="s" s="44">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E86" s="48"/>
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" t="s" s="44">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E87" s="48"/>
+    </row>
+    <row r="88" ht="16" customHeight="1">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" t="s" s="44">
+        <v>189</v>
+      </c>
+      <c r="D88" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E88" s="48"/>
+    </row>
+    <row r="89" ht="16" customHeight="1">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" t="s" s="44">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s" s="44">
+        <v>191</v>
+      </c>
+      <c r="E89" s="48"/>
+    </row>
+    <row r="90" ht="16" customHeight="1">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" t="s" s="44">
+        <v>192</v>
+      </c>
+      <c r="D90" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E90" s="48"/>
+    </row>
+    <row r="91" ht="16" customHeight="1">
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="51"/>
+    </row>
+    <row r="92" ht="16" customHeight="1">
+      <c r="A92" s="42">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s" s="43">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D92" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E92" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46"/>
+      <c r="C93" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D93" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" t="s" s="44">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E94" s="48"/>
+    </row>
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" t="s" s="44">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E95" s="48"/>
+    </row>
+    <row r="96" ht="16" customHeight="1">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" t="s" s="44">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E96" s="48"/>
+    </row>
+    <row r="97" ht="16" customHeight="1">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" t="s" s="44">
+        <v>198</v>
+      </c>
+      <c r="D97" t="s" s="44">
+        <v>199</v>
+      </c>
+      <c r="E97" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="1">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="51"/>
+    </row>
+    <row r="99" ht="16" customHeight="1">
+      <c r="A99" s="42">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s" s="43">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D99" s="52"/>
+      <c r="E99" t="s" s="45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="1">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D100" s="52"/>
+      <c r="E100" t="s" s="45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="1">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="48"/>
+    </row>
+    <row r="102" ht="16" customHeight="1">
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="48"/>
+    </row>
+    <row r="103" ht="16" customHeight="1">
+      <c r="A103" s="46"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="48"/>
+    </row>
+    <row r="104" ht="16" customHeight="1">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B65:B76"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Entities-Description</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="256" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="6" customWidth="1"/>
+    <col min="7" max="256" width="6" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.9" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" ht="20.1" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="A2" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" ht="20.5" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
+      <c r="A3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2682,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -2690,410 +4230,410 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="47.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="15" customWidth="1"/>
-    <col min="6" max="256" width="6" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="20" customWidth="1"/>
+    <col min="6" max="256" width="6" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="26.65" customHeight="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B7" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="B8" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="16">
+      <c r="B9" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="16">
+      <c r="B10" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="18">
+      <c r="B11" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="24">
+        <v>38</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="19">
+      <c r="B12" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="19">
+      <c r="B13" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" ht="26.65" customHeight="1">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="19">
+      <c r="B14" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="24">
+        <v>44</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="26.65" customHeight="1">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="19">
+      <c r="B15" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="24">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="24">
+        <v>46</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="19">
+      <c r="B16" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s" s="24">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="B17" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s" s="24">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="19">
+      <c r="B18" t="s" s="23">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="C18" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s" s="24">
+        <v>54</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" ht="26.65" customHeight="1">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="19">
+      <c r="B20" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="24">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s" s="24">
+        <v>56</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="D6" t="s" s="19">
+      <c r="B21" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s" s="24">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s" s="24">
+        <v>58</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="19">
+      <c r="B22" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s" s="24">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s" s="24">
+        <v>60</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="19">
+      <c r="B23" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s" s="24">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="19">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="19">
-        <v>37</v>
-      </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" ht="26.65" customHeight="1">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="19">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="17">
+      <c r="B24" t="s" s="23">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" ht="26.65" customHeight="1">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="17">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="17">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s" s="19">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="17">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s" s="19">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s" s="19">
-        <v>55</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="17">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s" s="19">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="E24" s="20"/>
+      <c r="C24" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s" s="24">
+        <v>64</v>
+      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3105,7 +4645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -3113,250 +4653,250 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="47.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="22" customWidth="1"/>
-    <col min="6" max="256" width="6" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="27" customWidth="1"/>
+    <col min="6" max="256" width="6" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="23">
+      <c r="A1" t="s" s="28">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s" s="31">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="31">
+        <v>68</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="31">
+        <v>70</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s" s="31">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s" s="31">
+        <v>72</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="31">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s" s="31">
+        <v>74</v>
+      </c>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s" s="31">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s" s="31">
+        <v>76</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" ht="37.65" customHeight="1">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="23">
+      <c r="B7" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s" s="31">
+        <v>78</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="23">
+      <c r="B8" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s" s="31">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s" s="31">
+        <v>80</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="23">
+      <c r="B9" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="31">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s" s="31">
+        <v>82</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="23">
+      <c r="B10" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s" s="31">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s" s="31">
+        <v>84</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" ht="26.65" customHeight="1">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>62</v>
-      </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s" s="26">
-        <v>64</v>
-      </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s" s="26">
+      <c r="B11" t="s" s="30">
         <v>66</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" ht="37.65" customHeight="1">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s" s="28">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s" s="26">
-        <v>74</v>
-      </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s" s="26">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" ht="26.65" customHeight="1">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="25">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s" s="26">
-        <v>78</v>
-      </c>
-      <c r="E11" s="27"/>
+      <c r="C11" t="s" s="31">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s" s="31">
+        <v>86</v>
+      </c>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3365,104 +4905,6 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000User_UserStories</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.75" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="30" customWidth="1"/>
-    <col min="6" max="256" width="6" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Login_UseCases</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3474,89 +4916,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="32" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="32" customWidth="1"/>
-    <col min="6" max="256" width="6" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="35" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="35" customWidth="1"/>
+    <col min="6" max="256" width="6" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000User_UseCases</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Login_UseCases</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
@@ -3572,89 +5014,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="33" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="33" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="33" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="33" customWidth="1"/>
-    <col min="6" max="256" width="6" style="33" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="37" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="37" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="37" customWidth="1"/>
+    <col min="6" max="256" width="6" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Admin_UseCases</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000User_UseCases</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
@@ -3670,83 +5112,181 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="34" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="34" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="34" customWidth="1"/>
-    <col min="6" max="256" width="6" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="38" customWidth="1"/>
+    <col min="6" max="256" width="6" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Admin_UseCases</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="39" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="39" customWidth="1"/>
+    <col min="6" max="256" width="6" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3760,1239 +5300,1225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="35" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="28" style="35" customWidth="1"/>
-    <col min="6" max="256" width="6" style="35" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="28" style="40" customWidth="1"/>
+    <col min="6" max="256" width="6" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="36">
+      <c r="A1" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="41">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="41">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s" s="41">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="44">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" t="s" s="44">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s" s="44">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s" s="45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" t="s" s="44">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="42">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" t="s" s="44">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s" s="44">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s" s="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" t="s" s="44">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" t="s" s="44">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" t="s" s="44">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" t="s" s="44">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s" s="44">
+        <v>114</v>
+      </c>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" t="s" s="44">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s" s="44">
+        <v>116</v>
+      </c>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" t="s" s="44">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" t="s" s="44">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="42">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s" s="44">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" t="s" s="44">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s" s="45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="42">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s" s="43">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" t="s" s="44">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s" s="44">
+        <v>127</v>
+      </c>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" t="s" s="44">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" t="s" s="44">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" t="s" s="44">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="42">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="43">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s" s="44">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="42">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="36">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s" s="36">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s" s="36">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s" s="36">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="38">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s" s="39">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" t="s" s="39">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s" s="39">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s" s="40">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" t="s" s="39">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s" s="39">
-        <v>91</v>
-      </c>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="37">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s" s="38">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" t="s" s="39">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s" s="39">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s" s="40">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" t="s" s="39">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s" s="39">
-        <v>91</v>
-      </c>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" t="s" s="39">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s" s="39">
-        <v>91</v>
-      </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" t="s" s="39">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s" s="39">
-        <v>91</v>
-      </c>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" t="s" s="39">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s" s="39">
+      <c r="B30" t="s" s="43">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s" s="45">
         <v>100</v>
       </c>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" t="s" s="39">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s" s="39">
-        <v>102</v>
-      </c>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" t="s" s="39">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" t="s" s="39">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="37">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s" s="38">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s" s="39">
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" t="s" s="44">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" t="s" s="44">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s" s="44">
+        <v>139</v>
+      </c>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" t="s" s="44">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" t="s" s="44">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" t="s" s="44">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" t="s" s="44">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E37" s="48"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" t="s" s="44">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="42">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s" s="43">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s" s="45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" t="s" s="44">
+        <v>145</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" t="s" s="44">
+        <v>147</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="48"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" t="s" s="44">
+        <v>148</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="42">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s" s="43">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s" s="44">
         <v>107</v>
       </c>
-      <c r="D16" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" t="s" s="39">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s" s="40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="37">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s" s="38">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" t="s" s="39">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s" s="39">
-        <v>113</v>
-      </c>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" t="s" s="39">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E22" s="43"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" t="s" s="39">
-        <v>115</v>
-      </c>
-      <c r="D23" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E23" s="43"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" t="s" s="39">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="37">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s" s="38">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s" s="39">
+      <c r="D46" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s" s="45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s" s="45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" ht="16" customHeight="1">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="42">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s" s="43">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s" s="44">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E50" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s" s="45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" t="s" s="44">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s" s="44">
+        <v>154</v>
+      </c>
+      <c r="E52" s="48"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" t="s" s="44">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s" s="44">
+        <v>156</v>
+      </c>
+      <c r="E53" s="48"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="42">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s" s="43">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s" s="44">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s" s="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" t="s" s="44">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="E57" s="48"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" t="s" s="44">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s" s="45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="42">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s" s="43">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s" s="44">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" t="s" s="44">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s" s="45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" t="s" s="44">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s" s="44">
+        <v>154</v>
+      </c>
+      <c r="E62" s="48"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" t="s" s="44">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s" s="44">
+        <v>156</v>
+      </c>
+      <c r="E63" s="48"/>
+    </row>
+    <row r="64" ht="16" customHeight="1">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="51"/>
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="42">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s" s="43">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" t="s" s="44">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s" s="44">
+        <v>172</v>
+      </c>
+      <c r="E66" s="48"/>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" t="s" s="44">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s" s="44">
+        <v>174</v>
+      </c>
+      <c r="E67" s="48"/>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s" s="45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" t="s" s="44">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" t="s" s="44">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" t="s" s="44">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" t="s" s="44">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s" s="44">
         <v>118</v>
       </c>
-      <c r="D26" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="37">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s" s="38">
-        <v>120</v>
-      </c>
-      <c r="C30" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D31" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" t="s" s="39">
+      <c r="E72" s="48"/>
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" t="s" s="44">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s" s="45">
         <v>122</v>
       </c>
-      <c r="D32" t="s" s="39">
-        <v>123</v>
-      </c>
-      <c r="E32" s="43"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" t="s" s="39">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s" s="39">
+    </row>
+    <row r="74" ht="16" customHeight="1">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" t="s" s="44">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E74" s="48"/>
+    </row>
+    <row r="75" ht="16" customHeight="1">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" t="s" s="44">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
+    </row>
+    <row r="77" ht="16" customHeight="1">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51"/>
+    </row>
+    <row r="78" ht="16" customHeight="1">
+      <c r="A78" s="42">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s" s="43">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s" s="44">
+        <v>183</v>
+      </c>
+      <c r="D78" s="52"/>
+      <c r="E78" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D79" s="52"/>
+      <c r="E79" t="s" s="45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" t="s" s="44">
+        <v>135</v>
+      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" t="s" s="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="51"/>
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="42">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="43">
+        <v>185</v>
+      </c>
+      <c r="C82" t="s" s="44">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s" s="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46"/>
+      <c r="C84" t="s" s="44">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s" s="45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" t="s" s="44">
         <v>125</v>
       </c>
-      <c r="E33" s="43"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" t="s" s="39">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E34" s="43"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" t="s" s="39">
-        <v>127</v>
-      </c>
-      <c r="D35" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E35" s="43"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" t="s" s="39">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" t="s" s="39">
-        <v>129</v>
-      </c>
-      <c r="D37" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E37" s="43"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" t="s" s="39">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="37">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s" s="38">
-        <v>131</v>
-      </c>
-      <c r="C40" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E40" t="s" s="40">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" t="s" s="39">
-        <v>131</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="43"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" t="s" s="39">
+      <c r="D85" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E85" t="s" s="45">
         <v>133</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="43"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" t="s" s="39">
-        <v>134</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="43"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="37">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s" s="38">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s" s="40">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E47" t="s" s="40">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="37">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s" s="38">
-        <v>137</v>
-      </c>
-      <c r="C50" t="s" s="39">
-        <v>138</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" t="s" s="40">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" t="s" s="39">
-        <v>139</v>
-      </c>
-      <c r="D52" t="s" s="39">
-        <v>140</v>
-      </c>
-      <c r="E52" s="43"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" t="s" s="39">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s" s="39">
-        <v>123</v>
-      </c>
-      <c r="E53" s="43"/>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" t="s" s="39">
-        <v>142</v>
-      </c>
-      <c r="D54" t="s" s="39">
-        <v>143</v>
-      </c>
-      <c r="E54" s="43"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="37">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s" s="38">
-        <v>144</v>
-      </c>
-      <c r="C56" t="s" s="39">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E56" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s" s="40">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" t="s" s="39">
-        <v>147</v>
-      </c>
-      <c r="D58" t="s" s="39">
-        <v>123</v>
-      </c>
-      <c r="E58" s="43"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" t="s" s="39">
-        <v>148</v>
-      </c>
-      <c r="D59" t="s" s="39">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s" s="40">
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" t="s" s="44">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E86" s="48"/>
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" t="s" s="44">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E87" s="48"/>
+    </row>
+    <row r="88" ht="16" customHeight="1">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" t="s" s="44">
+        <v>189</v>
+      </c>
+      <c r="D88" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E88" s="48"/>
+    </row>
+    <row r="89" ht="16" customHeight="1">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" t="s" s="44">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s" s="44">
+        <v>191</v>
+      </c>
+      <c r="E89" s="48"/>
+    </row>
+    <row r="90" ht="16" customHeight="1">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" t="s" s="44">
+        <v>192</v>
+      </c>
+      <c r="D90" t="s" s="44">
+        <v>162</v>
+      </c>
+      <c r="E90" s="48"/>
+    </row>
+    <row r="91" ht="16" customHeight="1">
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="51"/>
+    </row>
+    <row r="92" ht="16" customHeight="1">
+      <c r="A92" s="42">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s" s="43">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D92" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E92" t="s" s="45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46"/>
+      <c r="C93" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="D93" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s" s="55">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" t="s" s="44">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E94" s="48"/>
+    </row>
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" t="s" s="44">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s" s="44">
+        <v>118</v>
+      </c>
+      <c r="E95" s="48"/>
+    </row>
+    <row r="96" ht="16" customHeight="1">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" t="s" s="44">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="E96" s="48"/>
+    </row>
+    <row r="97" ht="16" customHeight="1">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" t="s" s="56">
+        <v>198</v>
+      </c>
+      <c r="D97" t="s" s="44">
+        <v>199</v>
+      </c>
+      <c r="E97" t="s" s="55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="1">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="51"/>
+    </row>
+    <row r="99" ht="16" customHeight="1">
+      <c r="A99" s="42">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s" s="43">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s" s="44">
+        <v>107</v>
+      </c>
+      <c r="D99" s="52"/>
+      <c r="E99" t="s" s="45">
         <v>150</v>
       </c>
     </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="37">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s" s="38">
-        <v>151</v>
-      </c>
-      <c r="C61" t="s" s="39">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E61" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" t="s" s="39">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E62" t="s" s="40">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" t="s" s="39">
-        <v>154</v>
-      </c>
-      <c r="D63" t="s" s="39">
-        <v>140</v>
-      </c>
-      <c r="E63" s="43"/>
-    </row>
-    <row r="64" ht="16" customHeight="1">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" t="s" s="39">
-        <v>155</v>
-      </c>
-      <c r="D64" t="s" s="39">
-        <v>123</v>
-      </c>
-      <c r="E64" s="43"/>
-    </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" t="s" s="39">
-        <v>156</v>
-      </c>
-      <c r="D65" t="s" s="39">
-        <v>143</v>
-      </c>
-      <c r="E65" s="43"/>
-    </row>
-    <row r="66" ht="16" customHeight="1">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="37">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s" s="38">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="D67" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E67" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" t="s" s="39">
-        <v>159</v>
-      </c>
-      <c r="D68" t="s" s="39">
-        <v>160</v>
-      </c>
-      <c r="E68" s="43"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" t="s" s="39">
-        <v>161</v>
-      </c>
-      <c r="D69" t="s" s="39">
-        <v>162</v>
-      </c>
-      <c r="E69" s="43"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E70" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" t="s" s="39">
-        <v>163</v>
-      </c>
-      <c r="D71" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E71" s="43"/>
-    </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" t="s" s="39">
-        <v>164</v>
-      </c>
-      <c r="D72" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E72" s="43"/>
-    </row>
-    <row r="73" ht="16" customHeight="1">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" t="s" s="39">
-        <v>165</v>
-      </c>
-      <c r="D73" t="s" s="39">
-        <v>149</v>
-      </c>
-      <c r="E73" s="43"/>
-    </row>
-    <row r="74" ht="16" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
-      <c r="C74" t="s" s="39">
-        <v>166</v>
-      </c>
-      <c r="D74" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E74" s="43"/>
-    </row>
-    <row r="75" ht="16" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" t="s" s="39">
-        <v>167</v>
-      </c>
-      <c r="D75" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E75" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" t="s" s="39">
-        <v>168</v>
-      </c>
-      <c r="D76" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E76" s="43"/>
-    </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" t="s" s="39">
-        <v>169</v>
-      </c>
-      <c r="D77" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E77" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="49"/>
-    </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-    </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" s="37">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s" s="38">
+    <row r="100" ht="16" customHeight="1">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" t="s" s="44">
         <v>170</v>
       </c>
-      <c r="C80" t="s" s="39">
-        <v>171</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41"/>
-      <c r="C81" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" t="s" s="40">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" t="s" s="39">
-        <v>121</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" t="s" s="40">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-    </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" s="37">
-        <v>14</v>
-      </c>
-      <c r="B84" t="s" s="38">
-        <v>173</v>
-      </c>
-      <c r="C84" t="s" s="39">
-        <v>174</v>
-      </c>
-      <c r="D84" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E84" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" ht="16" customHeight="1">
-      <c r="A85" s="41"/>
-      <c r="B85" s="41"/>
-      <c r="C85" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D85" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E85" t="s" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" ht="16" customHeight="1">
-      <c r="A86" s="41"/>
-      <c r="B86" s="41"/>
-      <c r="C86" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="D86" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s" s="40">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" ht="16" customHeight="1">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D87" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E87" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" ht="16" customHeight="1">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" t="s" s="39">
-        <v>175</v>
-      </c>
-      <c r="D88" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E88" s="43"/>
-    </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" s="41"/>
-      <c r="B89" s="41"/>
-      <c r="C89" t="s" s="39">
-        <v>176</v>
-      </c>
-      <c r="D89" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E89" s="43"/>
-    </row>
-    <row r="90" ht="16" customHeight="1">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="C90" t="s" s="39">
-        <v>177</v>
-      </c>
-      <c r="D90" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E90" s="43"/>
-    </row>
-    <row r="91" ht="16" customHeight="1">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" t="s" s="39">
-        <v>178</v>
-      </c>
-      <c r="D91" t="s" s="39">
-        <v>179</v>
-      </c>
-      <c r="E91" s="43"/>
-    </row>
-    <row r="92" ht="16" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" t="s" s="39">
-        <v>180</v>
-      </c>
-      <c r="D92" t="s" s="39">
-        <v>149</v>
-      </c>
-      <c r="E92" s="43"/>
-    </row>
-    <row r="93" ht="16" customHeight="1">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-    </row>
-    <row r="94" ht="16" customHeight="1">
-      <c r="A94" s="37">
-        <v>15</v>
-      </c>
-      <c r="B94" t="s" s="38">
-        <v>181</v>
-      </c>
-      <c r="C94" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E94" t="s" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" s="41"/>
-      <c r="B95" s="41"/>
-      <c r="C95" t="s" s="39">
-        <v>111</v>
-      </c>
-      <c r="D95" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E95" t="s" s="40">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" t="s" s="39">
-        <v>182</v>
-      </c>
-      <c r="D96" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E96" s="43"/>
-    </row>
-    <row r="97" ht="16" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
-      <c r="C97" t="s" s="39">
-        <v>183</v>
-      </c>
-      <c r="D97" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="E97" s="43"/>
-    </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" s="41"/>
-      <c r="B98" s="41"/>
-      <c r="C98" t="s" s="39">
-        <v>184</v>
-      </c>
-      <c r="D98" t="s" s="39">
-        <v>85</v>
-      </c>
-      <c r="E98" s="43"/>
-    </row>
-    <row r="99" ht="16" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" t="s" s="39">
-        <v>185</v>
-      </c>
-      <c r="D99" t="s" s="39">
-        <v>179</v>
-      </c>
-      <c r="E99" s="43"/>
-    </row>
-    <row r="100" ht="16" customHeight="1">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
+      <c r="D100" s="52"/>
+      <c r="E100" t="s" s="45">
+        <v>202</v>
+      </c>
     </row>
     <row r="101" ht="16" customHeight="1">
-      <c r="A101" s="37">
-        <v>16</v>
-      </c>
-      <c r="B101" t="s" s="38">
-        <v>186</v>
-      </c>
-      <c r="C101" t="s" s="39">
-        <v>93</v>
-      </c>
-      <c r="D101" s="47"/>
-      <c r="E101" t="s" s="40">
-        <v>136</v>
-      </c>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="48"/>
     </row>
     <row r="102" ht="16" customHeight="1">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41"/>
-      <c r="C102" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="D102" s="47"/>
-      <c r="E102" t="s" s="40">
-        <v>187</v>
-      </c>
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="48"/>
     </row>
     <row r="103" ht="16" customHeight="1">
-      <c r="A103" s="41"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="43"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="48"/>
     </row>
     <row r="104" ht="16" customHeight="1">
-      <c r="A104" s="41"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="43"/>
-    </row>
-    <row r="105" ht="16" customHeight="1">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="43"/>
-    </row>
-    <row r="106" ht="16" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="43"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B55:B58"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B65:B76"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B20:B24"/>
@@ -5004,22 +6530,20 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A84:A92"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A99:A104"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/documents/QMe_UserStories.xlsx
+++ b/documents/QMe_UserStories.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>Project</t>
   </si>
@@ -371,6 +371,15 @@
     <t>FOREIGN KEY CATEGORY</t>
   </si>
   <si>
+    <t>USER_CATEGORY_LIKES</t>
+  </si>
+  <si>
+    <t>Primary Key/FOREIGN KEY USER</t>
+  </si>
+  <si>
+    <t>Primary Key/FOREIGN KEY CATEGORY</t>
+  </si>
+  <si>
     <t>QUESTION</t>
   </si>
   <si>
@@ -428,10 +437,13 @@
     <t>ANSWER_REF_MEDIA_ID</t>
   </si>
   <si>
-    <t>REF_MEDIA_TYPE</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
+    <t>MEDIA_TYPE_ID</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>REF_MEDIA_MIME</t>
   </si>
   <si>
     <t>REF_MEDIA</t>
@@ -470,7 +482,7 @@
     <t>FOREIGN KEY ANSWER_OPTION</t>
   </si>
   <si>
-    <t>OPTION_MEDIA_TYPE</t>
+    <t>OPTION_MEDIA_MIME</t>
   </si>
   <si>
     <t>OPTION_MEDIA</t>
@@ -570,6 +582,12 @@
   </si>
   <si>
     <t>Primary Key /  FOREIGN KEY QUIZ</t>
+  </si>
+  <si>
+    <t>MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>MEDIA_TYPE_DESC</t>
   </si>
 </sst>
 </file>
@@ -655,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -888,13 +906,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1039,8 +1072,17 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1280,9 +1322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99099</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>138586</xdr:rowOff>
+      <xdr:colOff>374191</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1299,8 +1341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="-73351"/>
-          <a:ext cx="7592100" cy="8647587"/>
+          <a:off x="-1" y="0"/>
+          <a:ext cx="7867193" cy="9501669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,10 +2699,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:F11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3753,7 +3795,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4107,18 +4149,18 @@
         <v>117</v>
       </c>
       <c r="C29" t="s" s="38">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E29" t="s" s="39">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" t="s" s="38">
         <v>108</v>
       </c>
@@ -4126,202 +4168,202 @@
         <v>90</v>
       </c>
       <c r="E30" t="s" s="39">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" t="s" s="38">
-        <v>119</v>
-      </c>
-      <c r="D31" t="s" s="38">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="36">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="37">
         <v>120</v>
       </c>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" t="s" s="38">
+      <c r="C33" t="s" s="38">
         <v>121</v>
-      </c>
-      <c r="D32" t="s" s="38">
-        <v>122</v>
-      </c>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" t="s" s="38">
-        <v>123</v>
       </c>
       <c r="D33" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" t="s" s="38">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E34" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E34" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" t="s" s="38">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s" s="39">
-        <v>105</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" t="s" s="38">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s" s="38">
+        <v>125</v>
+      </c>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" t="s" s="38">
         <v>126</v>
-      </c>
-      <c r="D36" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E36" s="42"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" t="s" s="38">
-        <v>127</v>
       </c>
       <c r="D37" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E37" t="s" s="39">
-        <v>105</v>
-      </c>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" t="s" s="38">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="36">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s" s="37">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" t="s" s="38">
         <v>128</v>
-      </c>
-      <c r="C39" t="s" s="38">
-        <v>118</v>
       </c>
       <c r="D39" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E39" t="s" s="39">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" t="s" s="38">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" t="s" s="38">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s" s="39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="36">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s" s="37">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s" s="39">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" t="s" s="38">
         <v>108</v>
       </c>
-      <c r="D40" t="s" s="38">
+      <c r="D44" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E40" t="s" s="39">
+      <c r="E44" t="s" s="39">
         <v>116</v>
       </c>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" t="s" s="38">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s" s="38">
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" t="s" s="38">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s" s="38">
         <v>81</v>
       </c>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" t="s" s="38">
-        <v>130</v>
-      </c>
-      <c r="D42" t="s" s="38">
-        <v>81</v>
-      </c>
-      <c r="E42" s="42"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" t="s" s="38">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s" s="38">
-        <v>81</v>
-      </c>
-      <c r="E43" s="42"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="36">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s" s="37">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s" s="38">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E45" t="s" s="39">
-        <v>133</v>
-      </c>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" t="s" s="38">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E46" t="s" s="39">
-        <v>129</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E46" s="42"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
+      <c r="C47" t="s" s="38">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s" s="38">
+        <v>81</v>
+      </c>
       <c r="E47" s="42"/>
     </row>
     <row r="48" ht="16" customHeight="1">
@@ -4336,98 +4378,96 @@
         <v>9</v>
       </c>
       <c r="B49" t="s" s="37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s" s="38">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E49" t="s" s="39">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" t="s" s="38">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E50" t="s" s="39">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" t="s" s="38">
-        <v>136</v>
-      </c>
-      <c r="D51" t="s" s="38">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="36">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s" s="37">
         <v>137</v>
       </c>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" t="s" s="38">
+      <c r="C53" t="s" s="38">
         <v>138</v>
       </c>
-      <c r="D52" t="s" s="38">
-        <v>139</v>
-      </c>
-      <c r="E52" s="42"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="D53" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="36">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s" s="37">
-        <v>140</v>
-      </c>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
       <c r="C54" t="s" s="38">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E54" t="s" s="39">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" t="s" s="38">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s" s="38">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s" s="39">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="51"/>
       <c r="C56" t="s" s="38">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s" s="38">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E56" s="42"/>
     </row>
@@ -4435,14 +4475,12 @@
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" t="s" s="38">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s" s="38">
-        <v>145</v>
-      </c>
-      <c r="E57" t="s" s="39">
-        <v>146</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E57" s="42"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="43"/>
@@ -4456,10 +4494,10 @@
         <v>11</v>
       </c>
       <c r="B59" t="s" s="37">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s" s="38">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s" s="38">
         <v>90</v>
@@ -4472,23 +4510,23 @@
       <c r="A60" s="46"/>
       <c r="B60" s="46"/>
       <c r="C60" t="s" s="38">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E60" t="s" s="39">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
       <c r="C61" t="s" s="38">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s" s="38">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E61" s="42"/>
     </row>
@@ -4496,12 +4534,14 @@
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" t="s" s="38">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s" s="38">
-        <v>139</v>
-      </c>
-      <c r="E62" s="42"/>
+        <v>149</v>
+      </c>
+      <c r="E62" t="s" s="39">
+        <v>150</v>
+      </c>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="43"/>
@@ -4515,10 +4555,10 @@
         <v>12</v>
       </c>
       <c r="B64" t="s" s="37">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s" s="38">
         <v>152</v>
-      </c>
-      <c r="C64" t="s" s="38">
-        <v>153</v>
       </c>
       <c r="D64" t="s" s="38">
         <v>90</v>
@@ -4531,78 +4571,82 @@
       <c r="A65" s="46"/>
       <c r="B65" s="46"/>
       <c r="C65" t="s" s="38">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s" s="38">
-        <v>155</v>
-      </c>
-      <c r="E65" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E65" t="s" s="39">
+        <v>153</v>
+      </c>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="46"/>
       <c r="B66" s="46"/>
       <c r="C66" t="s" s="38">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s" s="39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="31"/>
+      <c r="B67" s="51"/>
+      <c r="C67" t="s" s="38">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s" s="38">
+        <v>110</v>
+      </c>
+      <c r="E67" s="42"/>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" t="s" s="38">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s" s="38">
+        <v>143</v>
+      </c>
+      <c r="E68" s="42"/>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" s="36">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s" s="37">
         <v>156</v>
       </c>
-      <c r="D66" t="s" s="38">
+      <c r="C70" t="s" s="38">
         <v>157</v>
       </c>
-      <c r="E66" s="42"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" t="s" s="38">
-        <v>108</v>
-      </c>
-      <c r="D67" t="s" s="38">
+      <c r="D70" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E67" t="s" s="39">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" t="s" s="38">
-        <v>158</v>
-      </c>
-      <c r="D68" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E68" s="42"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" t="s" s="38">
-        <v>159</v>
-      </c>
-      <c r="D69" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E69" s="42"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" t="s" s="38">
-        <v>160</v>
-      </c>
-      <c r="D70" t="s" s="38">
-        <v>145</v>
-      </c>
-      <c r="E70" s="42"/>
+      <c r="E70" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="46"/>
       <c r="B71" s="46"/>
       <c r="C71" t="s" s="38">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D71" t="s" s="38">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="E71" s="42"/>
     </row>
@@ -4610,259 +4654,257 @@
       <c r="A72" s="46"/>
       <c r="B72" s="46"/>
       <c r="C72" t="s" s="38">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E72" t="s" s="39">
-        <v>105</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="46"/>
       <c r="B73" s="46"/>
       <c r="C73" t="s" s="38">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E73" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E73" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="46"/>
       <c r="B74" s="46"/>
       <c r="C74" t="s" s="38">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E74" t="s" s="39">
-        <v>105</v>
-      </c>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" ht="16" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" t="s" s="38">
+        <v>163</v>
+      </c>
+      <c r="D75" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E75" s="42"/>
     </row>
     <row r="76" ht="16" customHeight="1">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" t="s" s="38">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s" s="38">
+        <v>149</v>
+      </c>
+      <c r="E76" s="42"/>
     </row>
     <row r="77" ht="16" customHeight="1">
-      <c r="A77" s="36">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s" s="37">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" t="s" s="38">
         <v>165</v>
       </c>
-      <c r="C77" t="s" s="38">
-        <v>166</v>
-      </c>
       <c r="D77" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E77" t="s" s="39">
-        <v>82</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E77" s="42"/>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="46"/>
       <c r="B78" s="46"/>
       <c r="C78" t="s" s="38">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E78" t="s" s="39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" t="s" s="38">
         <v>167</v>
       </c>
-    </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
-      <c r="C79" t="s" s="38">
-        <v>118</v>
-      </c>
       <c r="D79" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" ht="16" customHeight="1">
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" t="s" s="38">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E79" t="s" s="39">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="45"/>
+      <c r="E80" t="s" s="39">
+        <v>105</v>
+      </c>
     </row>
     <row r="81" ht="16" customHeight="1">
-      <c r="A81" s="36">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+    </row>
+    <row r="82" ht="16" customHeight="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" ht="16" customHeight="1">
+      <c r="A83" s="36">
         <v>14</v>
       </c>
-      <c r="B81" t="s" s="37">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s" s="38">
+      <c r="B83" t="s" s="37">
         <v>169</v>
       </c>
-      <c r="D81" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E81" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" s="46"/>
-      <c r="B82" s="46"/>
-      <c r="C82" t="s" s="38">
-        <v>89</v>
-      </c>
-      <c r="D82" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E82" t="s" s="39">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
       <c r="C83" t="s" s="38">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E83" t="s" s="39">
-        <v>167</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="46"/>
       <c r="B84" s="46"/>
       <c r="C84" t="s" s="38">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E84" t="s" s="39">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" t="s" s="38">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E85" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E85" t="s" s="39">
+        <v>146</v>
+      </c>
     </row>
     <row r="86" ht="16" customHeight="1">
-      <c r="A86" s="46"/>
-      <c r="B86" s="46"/>
-      <c r="C86" t="s" s="38">
-        <v>171</v>
-      </c>
-      <c r="D86" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E86" s="42"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" ht="16" customHeight="1">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
+      <c r="A87" s="36">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s" s="37">
+        <v>172</v>
+      </c>
       <c r="C87" t="s" s="38">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s" s="38">
-        <v>81</v>
-      </c>
-      <c r="E87" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E87" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="46"/>
       <c r="B88" s="46"/>
       <c r="C88" t="s" s="38">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E88" t="s" s="39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="1">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" t="s" s="38">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s" s="39">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" ht="16" customHeight="1">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" t="s" s="38">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E90" t="s" s="39">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="1">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" t="s" s="38">
         <v>174</v>
       </c>
-      <c r="E88" s="42"/>
-    </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
-      <c r="C89" t="s" s="38">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s" s="38">
-        <v>145</v>
-      </c>
-      <c r="E89" s="42"/>
-    </row>
-    <row r="90" ht="16" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="45"/>
-    </row>
-    <row r="91" ht="16" customHeight="1">
-      <c r="A91" s="36">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s" s="37">
-        <v>176</v>
-      </c>
-      <c r="C91" t="s" s="38">
-        <v>89</v>
-      </c>
       <c r="D91" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s" s="39">
-        <v>177</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E91" s="42"/>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="46"/>
       <c r="B92" s="46"/>
       <c r="C92" t="s" s="38">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E92" t="s" s="39">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E92" s="42"/>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="46"/>
       <c r="B93" s="46"/>
       <c r="C93" t="s" s="38">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s" s="38">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E93" s="42"/>
     </row>
@@ -4870,134 +4912,277 @@
       <c r="A94" s="46"/>
       <c r="B94" s="46"/>
       <c r="C94" t="s" s="38">
+        <v>177</v>
+      </c>
+      <c r="D94" t="s" s="38">
+        <v>178</v>
+      </c>
+      <c r="E94" s="42"/>
+    </row>
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" t="s" s="38">
         <v>179</v>
       </c>
-      <c r="D94" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E94" s="42"/>
-    </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-      <c r="C95" t="s" s="38">
+      <c r="D95" t="s" s="38">
+        <v>149</v>
+      </c>
+      <c r="E95" s="42"/>
+    </row>
+    <row r="96" ht="16" customHeight="1">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
+    </row>
+    <row r="97" ht="16" customHeight="1">
+      <c r="A97" s="36">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s" s="37">
         <v>180</v>
       </c>
-      <c r="D95" t="s" s="38">
-        <v>81</v>
-      </c>
-      <c r="E95" s="42"/>
-    </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
-      <c r="C96" t="s" s="38">
+      <c r="C97" t="s" s="38">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E97" t="s" s="39">
         <v>181</v>
       </c>
-      <c r="D96" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E96" s="42"/>
-    </row>
-    <row r="97" ht="16" customHeight="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
     </row>
     <row r="98" ht="16" customHeight="1">
-      <c r="A98" s="36">
-        <v>16</v>
-      </c>
-      <c r="B98" t="s" s="37">
-        <v>182</v>
-      </c>
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
       <c r="C98" t="s" s="38">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E98" t="s" s="39">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="46"/>
       <c r="B99" s="46"/>
       <c r="C99" t="s" s="38">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E99" t="s" s="39">
-        <v>183</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E99" s="42"/>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="46"/>
       <c r="B100" s="46"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
+      <c r="C100" t="s" s="38">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s" s="38">
+        <v>101</v>
+      </c>
       <c r="E100" s="42"/>
     </row>
     <row r="101" ht="16" customHeight="1">
       <c r="A101" s="46"/>
       <c r="B101" s="46"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
+      <c r="C101" t="s" s="38">
+        <v>184</v>
+      </c>
+      <c r="D101" t="s" s="38">
+        <v>81</v>
+      </c>
       <c r="E101" s="42"/>
     </row>
     <row r="102" ht="16" customHeight="1">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" t="s" s="38">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s" s="38">
+        <v>90</v>
+      </c>
       <c r="E102" s="42"/>
     </row>
     <row r="103" ht="16" customHeight="1">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="42"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="45"/>
+    </row>
+    <row r="104" ht="16" customHeight="1">
+      <c r="A104" s="36">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s" s="37">
+        <v>186</v>
+      </c>
+      <c r="C104" t="s" s="38">
+        <v>89</v>
+      </c>
+      <c r="D104" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s" s="39">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="1">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" t="s" s="38">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E105" t="s" s="39">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="1">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="42"/>
+    </row>
+    <row r="107" ht="16" customHeight="1">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="42"/>
+    </row>
+    <row r="108" ht="16" customHeight="1">
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="42"/>
+    </row>
+    <row r="109" ht="16" customHeight="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="42"/>
+    </row>
+    <row r="110" ht="16" customHeight="1">
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
+    </row>
+    <row r="111" ht="16" customHeight="1">
+      <c r="A111" s="36">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s" s="37">
+        <v>188</v>
+      </c>
+      <c r="C111" t="s" s="38">
+        <v>139</v>
+      </c>
+      <c r="D111" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E111" t="s" s="39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="1">
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
+      <c r="C112" t="s" s="38">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s" s="38">
+        <v>84</v>
+      </c>
+      <c r="E112" t="s" s="39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" ht="16" customHeight="1">
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
+      <c r="C113" t="s" s="38">
+        <v>189</v>
+      </c>
+      <c r="D113" t="s" s="38">
+        <v>87</v>
+      </c>
+      <c r="E113" s="42"/>
+    </row>
+    <row r="114" ht="16" customHeight="1">
+      <c r="A114" s="40"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="42"/>
+    </row>
+    <row r="115" ht="16" customHeight="1">
+      <c r="A115" s="40"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="42"/>
+    </row>
+    <row r="116" ht="16" customHeight="1">
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B81:B89"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B77:B79"/>
+  <mergeCells count="36">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/documents/QMe_UserStories.xlsx
+++ b/documents/QMe_UserStories.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>Project</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>QUESTION_UPDATE_USER</t>
+  </si>
+  <si>
+    <t>QUESTION_POINT</t>
   </si>
   <si>
     <t>QUESTION_HIT</t>
@@ -927,7 +930,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1077,6 +1080,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1321,10 +1330,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>374191</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>21118</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480099</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,8 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-1" y="0"/>
-          <a:ext cx="7867193" cy="9501669"/>
+          <a:off x="-125750" y="-364064"/>
+          <a:ext cx="7363500" cy="8766374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,10 +2708,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B3:F11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:F11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3795,7 +3804,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4297,58 +4306,58 @@
       </c>
     </row>
     <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" t="s" s="38">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="36">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="36">
         <v>8</v>
       </c>
-      <c r="B43" t="s" s="37">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s" s="38">
+      <c r="B44" t="s" s="37">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s" s="38">
         <v>121</v>
-      </c>
-      <c r="D43" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s" s="39">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" t="s" s="38">
-        <v>108</v>
       </c>
       <c r="D44" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E44" t="s" s="39">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" t="s" s="38">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s" s="38">
-        <v>81</v>
-      </c>
-      <c r="E45" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E45" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" t="s" s="38">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s" s="38">
         <v>81</v>
@@ -4356,8 +4365,8 @@
       <c r="E46" s="42"/>
     </row>
     <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="C47" t="s" s="38">
         <v>134</v>
       </c>
@@ -4367,297 +4376,297 @@
       <c r="E47" s="42"/>
     </row>
     <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" t="s" s="38">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="36">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="36">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="37">
-        <v>135</v>
-      </c>
-      <c r="C49" t="s" s="38">
+      <c r="B50" t="s" s="37">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s" s="38">
         <v>89</v>
-      </c>
-      <c r="D49" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E49" t="s" s="39">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" t="s" s="38">
-        <v>121</v>
       </c>
       <c r="D50" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E50" t="s" s="39">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s" s="39">
+        <v>133</v>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="42"/>
     </row>
     <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="36">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="36">
         <v>10</v>
       </c>
-      <c r="B53" t="s" s="37">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s" s="38">
+      <c r="B54" t="s" s="37">
         <v>138</v>
       </c>
-      <c r="D53" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E53" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
       <c r="C54" t="s" s="38">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E54" t="s" s="39">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" t="s" s="38">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s" s="39">
         <v>81</v>
       </c>
-      <c r="E55" t="s" s="39">
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" t="s" s="38">
         <v>140</v>
       </c>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="51"/>
-      <c r="C56" t="s" s="38">
+      <c r="D56" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E56" t="s" s="39">
         <v>141</v>
       </c>
-      <c r="D56" t="s" s="38">
-        <v>110</v>
-      </c>
-      <c r="E56" s="42"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="53"/>
       <c r="C57" t="s" s="38">
         <v>142</v>
       </c>
       <c r="D57" t="s" s="38">
+        <v>110</v>
+      </c>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" t="s" s="38">
         <v>143</v>
       </c>
-      <c r="E57" s="42"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
+      <c r="D58" t="s" s="38">
+        <v>144</v>
+      </c>
+      <c r="E58" s="42"/>
     </row>
     <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="36">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" ht="16" customHeight="1">
+      <c r="A60" s="36">
         <v>11</v>
       </c>
-      <c r="B59" t="s" s="37">
-        <v>144</v>
-      </c>
-      <c r="C59" t="s" s="38">
+      <c r="B60" t="s" s="37">
         <v>145</v>
       </c>
-      <c r="D59" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E59" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
       <c r="C60" t="s" s="38">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E60" t="s" s="39">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
       <c r="C61" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s" s="39">
         <v>147</v>
       </c>
-      <c r="D61" t="s" s="38">
-        <v>123</v>
-      </c>
-      <c r="E61" s="42"/>
     </row>
     <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
       <c r="C62" t="s" s="38">
         <v>148</v>
       </c>
       <c r="D62" t="s" s="38">
+        <v>123</v>
+      </c>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" ht="16" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" t="s" s="38">
         <v>149</v>
       </c>
-      <c r="E62" t="s" s="39">
+      <c r="D63" t="s" s="38">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
+      <c r="E63" t="s" s="39">
+        <v>151</v>
+      </c>
     </row>
     <row r="64" ht="16" customHeight="1">
-      <c r="A64" s="36">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" ht="16" customHeight="1">
+      <c r="A65" s="36">
         <v>12</v>
       </c>
-      <c r="B64" t="s" s="37">
-        <v>151</v>
-      </c>
-      <c r="C64" t="s" s="38">
+      <c r="B65" t="s" s="37">
         <v>152</v>
       </c>
-      <c r="D64" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E64" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
       <c r="C65" t="s" s="38">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E65" t="s" s="39">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="46"/>
       <c r="B66" s="46"/>
       <c r="C66" t="s" s="38">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E66" t="s" s="39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" t="s" s="38">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s" s="38">
         <v>81</v>
       </c>
-      <c r="E66" t="s" s="39">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="31"/>
-      <c r="B67" s="51"/>
-      <c r="C67" t="s" s="38">
-        <v>154</v>
-      </c>
-      <c r="D67" t="s" s="38">
-        <v>110</v>
-      </c>
-      <c r="E67" s="42"/>
+      <c r="E67" t="s" s="39">
+        <v>141</v>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="53"/>
       <c r="C68" t="s" s="38">
         <v>155</v>
       </c>
       <c r="D68" t="s" s="38">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E68" s="42"/>
     </row>
     <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" t="s" s="38">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s" s="38">
+        <v>144</v>
+      </c>
+      <c r="E69" s="42"/>
     </row>
     <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="36">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" s="36">
         <v>13</v>
       </c>
-      <c r="B70" t="s" s="37">
-        <v>156</v>
-      </c>
-      <c r="C70" t="s" s="38">
+      <c r="B71" t="s" s="37">
         <v>157</v>
       </c>
-      <c r="D70" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E70" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
       <c r="C71" t="s" s="38">
         <v>158</v>
       </c>
       <c r="D71" t="s" s="38">
-        <v>159</v>
-      </c>
-      <c r="E71" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E71" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="46"/>
       <c r="B72" s="46"/>
       <c r="C72" t="s" s="38">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s" s="38">
         <v>160</v>
-      </c>
-      <c r="D72" t="s" s="38">
-        <v>161</v>
       </c>
       <c r="E72" s="42"/>
     </row>
@@ -4665,25 +4674,25 @@
       <c r="A73" s="46"/>
       <c r="B73" s="46"/>
       <c r="C73" t="s" s="38">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E73" t="s" s="39">
-        <v>116</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E73" s="42"/>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="46"/>
       <c r="B74" s="46"/>
       <c r="C74" t="s" s="38">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="46"/>
@@ -4703,7 +4712,7 @@
         <v>164</v>
       </c>
       <c r="D76" t="s" s="38">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="E76" s="42"/>
     </row>
@@ -4714,7 +4723,7 @@
         <v>165</v>
       </c>
       <c r="D77" t="s" s="38">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E77" s="42"/>
     </row>
@@ -4725,11 +4734,9 @@
         <v>166</v>
       </c>
       <c r="D78" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s" s="39">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E78" s="42"/>
     </row>
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="46"/>
@@ -4738,9 +4745,11 @@
         <v>167</v>
       </c>
       <c r="D79" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E79" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E79" t="s" s="39">
+        <v>105</v>
+      </c>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="46"/>
@@ -4749,142 +4758,142 @@
         <v>168</v>
       </c>
       <c r="D80" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E80" s="42"/>
+    </row>
+    <row r="81" ht="16" customHeight="1">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" t="s" s="38">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E80" t="s" s="39">
+      <c r="E81" t="s" s="39">
         <v>105</v>
       </c>
     </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-    </row>
     <row r="82" ht="16" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="55"/>
     </row>
     <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="36">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
+    </row>
+    <row r="84" ht="16" customHeight="1">
+      <c r="A84" s="36">
         <v>14</v>
       </c>
-      <c r="B83" t="s" s="37">
-        <v>169</v>
-      </c>
-      <c r="C83" t="s" s="38">
+      <c r="B84" t="s" s="37">
         <v>170</v>
       </c>
-      <c r="D83" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E83" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" s="46"/>
-      <c r="B84" s="46"/>
       <c r="C84" t="s" s="38">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E84" t="s" s="39">
-        <v>171</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
       <c r="C85" t="s" s="38">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E85" t="s" s="39">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" ht="16" customHeight="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s" s="39">
+        <v>147</v>
+      </c>
     </row>
     <row r="87" ht="16" customHeight="1">
-      <c r="A87" s="36">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
+    </row>
+    <row r="88" ht="16" customHeight="1">
+      <c r="A88" s="36">
         <v>15</v>
       </c>
-      <c r="B87" t="s" s="37">
-        <v>172</v>
-      </c>
-      <c r="C87" t="s" s="38">
+      <c r="B88" t="s" s="37">
         <v>173</v>
       </c>
-      <c r="D87" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E87" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" ht="16" customHeight="1">
-      <c r="A88" s="46"/>
-      <c r="B88" s="46"/>
       <c r="C88" t="s" s="38">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E88" t="s" s="39">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="46"/>
       <c r="B89" s="46"/>
       <c r="C89" t="s" s="38">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E89" t="s" s="39">
-        <v>171</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="46"/>
       <c r="B90" s="46"/>
       <c r="C90" t="s" s="38">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D90" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E90" t="s" s="39">
-        <v>116</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="46"/>
       <c r="B91" s="46"/>
       <c r="C91" t="s" s="38">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E91" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E91" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="46"/>
@@ -4904,7 +4913,7 @@
         <v>176</v>
       </c>
       <c r="D93" t="s" s="38">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E93" s="42"/>
     </row>
@@ -4915,68 +4924,68 @@
         <v>177</v>
       </c>
       <c r="D94" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E94" s="42"/>
+    </row>
+    <row r="95" ht="16" customHeight="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" t="s" s="38">
         <v>178</v>
       </c>
-      <c r="E94" s="42"/>
-    </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
-      <c r="C95" t="s" s="38">
+      <c r="D95" t="s" s="38">
         <v>179</v>
       </c>
-      <c r="D95" t="s" s="38">
-        <v>149</v>
-      </c>
       <c r="E95" s="42"/>
     </row>
     <row r="96" ht="16" customHeight="1">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
+      <c r="C96" t="s" s="38">
+        <v>180</v>
+      </c>
+      <c r="D96" t="s" s="38">
+        <v>150</v>
+      </c>
+      <c r="E96" s="42"/>
     </row>
     <row r="97" ht="16" customHeight="1">
-      <c r="A97" s="36">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
+    </row>
+    <row r="98" ht="16" customHeight="1">
+      <c r="A98" s="36">
         <v>16</v>
       </c>
-      <c r="B97" t="s" s="37">
-        <v>180</v>
-      </c>
-      <c r="C97" t="s" s="38">
+      <c r="B98" t="s" s="37">
+        <v>181</v>
+      </c>
+      <c r="C98" t="s" s="38">
         <v>89</v>
-      </c>
-      <c r="D97" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E97" t="s" s="39">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" t="s" s="38">
-        <v>108</v>
       </c>
       <c r="D98" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E98" t="s" s="39">
-        <v>116</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="46"/>
       <c r="B99" s="46"/>
       <c r="C99" t="s" s="38">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E99" s="42"/>
+        <v>90</v>
+      </c>
+      <c r="E99" t="s" s="39">
+        <v>116</v>
+      </c>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="46"/>
@@ -4996,121 +5005,119 @@
         <v>184</v>
       </c>
       <c r="D101" t="s" s="38">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E101" s="42"/>
     </row>
     <row r="102" ht="16" customHeight="1">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
       <c r="C102" t="s" s="38">
         <v>185</v>
       </c>
       <c r="D102" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="E102" s="42"/>
+    </row>
+    <row r="103" ht="16" customHeight="1">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
+      <c r="C103" t="s" s="38">
+        <v>186</v>
+      </c>
+      <c r="D103" t="s" s="38">
         <v>90</v>
       </c>
-      <c r="E102" s="42"/>
-    </row>
-    <row r="103" ht="16" customHeight="1">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="45"/>
+      <c r="E103" s="42"/>
     </row>
     <row r="104" ht="16" customHeight="1">
-      <c r="A104" s="36">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
+    </row>
+    <row r="105" ht="16" customHeight="1">
+      <c r="A105" s="36">
         <v>17</v>
       </c>
-      <c r="B104" t="s" s="37">
-        <v>186</v>
-      </c>
-      <c r="C104" t="s" s="38">
+      <c r="B105" t="s" s="37">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s" s="38">
         <v>89</v>
-      </c>
-      <c r="D104" t="s" s="38">
-        <v>90</v>
-      </c>
-      <c r="E104" t="s" s="39">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="1">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" t="s" s="38">
-        <v>157</v>
       </c>
       <c r="D105" t="s" s="38">
         <v>90</v>
       </c>
       <c r="E105" t="s" s="39">
-        <v>187</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" ht="16" customHeight="1">
       <c r="A106" s="46"/>
       <c r="B106" s="46"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="42"/>
+      <c r="C106" t="s" s="38">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E106" t="s" s="39">
+        <v>188</v>
+      </c>
     </row>
     <row r="107" ht="16" customHeight="1">
       <c r="A107" s="46"/>
       <c r="B107" s="46"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="42"/>
     </row>
     <row r="108" ht="16" customHeight="1">
       <c r="A108" s="46"/>
       <c r="B108" s="46"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="42"/>
     </row>
     <row r="109" ht="16" customHeight="1">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="42"/>
     </row>
     <row r="110" ht="16" customHeight="1">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="42"/>
     </row>
     <row r="111" ht="16" customHeight="1">
-      <c r="A111" s="36">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
+    </row>
+    <row r="112" ht="16" customHeight="1">
+      <c r="A112" s="36">
         <v>18</v>
       </c>
-      <c r="B111" t="s" s="37">
-        <v>188</v>
-      </c>
-      <c r="C111" t="s" s="38">
-        <v>139</v>
-      </c>
-      <c r="D111" t="s" s="38">
+      <c r="B112" t="s" s="37">
+        <v>189</v>
+      </c>
+      <c r="C112" t="s" s="38">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s" s="38">
         <v>81</v>
       </c>
-      <c r="E111" t="s" s="39">
+      <c r="E112" t="s" s="39">
         <v>82</v>
-      </c>
-    </row>
-    <row r="112" ht="16" customHeight="1">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
-      <c r="C112" t="s" s="38">
-        <v>188</v>
-      </c>
-      <c r="D112" t="s" s="38">
-        <v>84</v>
-      </c>
-      <c r="E112" t="s" s="39">
-        <v>85</v>
       </c>
     </row>
     <row r="113" ht="16" customHeight="1">
@@ -5120,69 +5127,82 @@
         <v>189</v>
       </c>
       <c r="D113" t="s" s="38">
-        <v>87</v>
-      </c>
-      <c r="E113" s="42"/>
+        <v>84</v>
+      </c>
+      <c r="E113" t="s" s="39">
+        <v>85</v>
+      </c>
     </row>
     <row r="114" ht="16" customHeight="1">
       <c r="A114" s="40"/>
       <c r="B114" s="40"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
+      <c r="C114" t="s" s="38">
+        <v>190</v>
+      </c>
+      <c r="D114" t="s" s="38">
+        <v>87</v>
+      </c>
       <c r="E114" s="42"/>
     </row>
     <row r="115" ht="16" customHeight="1">
       <c r="A115" s="40"/>
       <c r="B115" s="40"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="42"/>
     </row>
     <row r="116" ht="16" customHeight="1">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="42"/>
+    </row>
+    <row r="117" ht="16" customHeight="1">
+      <c r="A117" s="41"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B50:B52"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/documents/QMe_UserStories.xlsx
+++ b/documents/QMe_UserStories.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>Project</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>MEDIA_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>USER_PASSWORD_RESET</t>
+  </si>
+  <si>
+    <t>RESET_TOKEN</t>
+  </si>
+  <si>
+    <t>CREATED_TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1339,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480099</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95447</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46373</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1350,8 +1359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-125750" y="-364064"/>
-          <a:ext cx="7363500" cy="8766374"/>
+          <a:off x="-119380" y="-279400"/>
+          <a:ext cx="8148974" cy="7961446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,10 +2717,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:F11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3804,7 +3813,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5165,44 +5174,113 @@
       <c r="D117" s="52"/>
       <c r="E117" s="42"/>
     </row>
+    <row r="118" ht="16" customHeight="1">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="45"/>
+    </row>
+    <row r="119" ht="16" customHeight="1">
+      <c r="A119" s="36">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s" s="37">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s" s="38">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E119" t="s" s="39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" ht="16" customHeight="1">
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" t="s" s="38">
+        <v>192</v>
+      </c>
+      <c r="D120" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E120" s="42"/>
+    </row>
+    <row r="121" ht="16" customHeight="1">
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
+      <c r="C121" t="s" s="38">
+        <v>193</v>
+      </c>
+      <c r="D121" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E121" s="42"/>
+    </row>
+    <row r="122" ht="16" customHeight="1">
+      <c r="A122" s="40"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="42"/>
+    </row>
+    <row r="123" ht="16" customHeight="1">
+      <c r="A123" s="40"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="42"/>
+    </row>
+    <row r="124" ht="16" customHeight="1">
+      <c r="A124" s="41"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A33:A41"/>
     <mergeCell ref="B33:B41"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="A119:A124"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
